--- a/poem/poem/starter_decks.xlsx
+++ b/poem/poem/starter_decks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelle\Desktop\Card Creator\CardCreator\poem\poem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED96ABA-CF51-423F-96BD-95D3F5212518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD16FA-0940-4E5F-8938-7413CFE81CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,19 +553,19 @@
       </c>
       <c r="B2" s="2">
         <f>SUM(B3:B99)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:E2" si="0">SUM(C3:C99)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -709,16 +709,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
